--- a/bid_data.xlsx
+++ b/bid_data.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">company_id</t>
+  </si>
   <si>
     <t xml:space="preserve">company_name</t>
   </si>
@@ -40,6 +43,9 @@
     <t xml:space="preserve">amount</t>
   </si>
   <si>
+    <t xml:space="preserve">company1@igc.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">company1</t>
   </si>
   <si>
@@ -67,7 +73,13 @@
     <t xml:space="preserve">hyd</t>
   </si>
   <si>
+    <t xml:space="preserve">company2@igc.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">company2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">company3@igc.com</t>
   </si>
   <si>
     <t xml:space="preserve">company3</t>
@@ -171,7 +183,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,16 +204,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -219,88 +231,108 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>76889</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G4" s="1" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>76889</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="G5" s="1" t="n">
         <v>90000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="company1@igc.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="company1@igc.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="company2@igc.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
